--- a/RESULT/mysql_full_data_validation_results.xlsx
+++ b/RESULT/mysql_full_data_validation_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://infoblox-my.sharepoint.com/personal/kkrishna_infoblox_com/Documents/hackthon-2024/Project/code-hackathon-2024/RESULT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_B28DAF5802F592920E014ED0359F4E99A8076FB1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7948CCA-0FC9-EC4C-A401-A872A8C9768B}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_B28DAF5802F592920E014ED0359F4E99A8076FB1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FA6D7A9-A78B-1A4D-85F5-9783595BE774}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="30120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="54">
   <si>
     <t>schema_name</t>
   </si>
@@ -121,13 +121,76 @@
   </si>
   <si>
     <t>empno, ename, sal, job, doj, deptno, manager_id, bonus</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>2024-06-21 17:01:28</t>
+  </si>
+  <si>
+    <t>2024-06-21 17:01:29</t>
+  </si>
+  <si>
+    <t>2024-06-21 17:01:30</t>
+  </si>
+  <si>
+    <t>2024-06-21 17:01:31</t>
+  </si>
+  <si>
+    <t>2024-06-21 17:01:32</t>
+  </si>
+  <si>
+    <t>2024-06-21 17:01:33</t>
+  </si>
+  <si>
+    <t>2024-06-21 17:01:34</t>
+  </si>
+  <si>
+    <t>2024-06-21 17:01:35</t>
+  </si>
+  <si>
+    <t>2024-06-21 17:01:36</t>
+  </si>
+  <si>
+    <t>2024-06-21 17:01:37</t>
+  </si>
+  <si>
+    <t>2024-06-21 17:01:38</t>
+  </si>
+  <si>
+    <t>2024-06-21 17:01:39</t>
+  </si>
+  <si>
+    <t>2024-06-21 17:01:40</t>
+  </si>
+  <si>
+    <t>2024-06-21 17:01:41</t>
+  </si>
+  <si>
+    <t>2024-06-21 17:01:42</t>
+  </si>
+  <si>
+    <t>2024-06-21 17:01:43</t>
+  </si>
+  <si>
+    <t>2024-06-21 17:01:44</t>
+  </si>
+  <si>
+    <t>2024-06-21 17:01:45</t>
+  </si>
+  <si>
+    <t>2024-06-21 17:01:46</t>
+  </si>
+  <si>
+    <t>2024-06-21 17:01:47</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +203,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -484,11 +553,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -727,6 +806,226 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
         <v>10</v>
       </c>
     </row>
@@ -737,11 +1036,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="179" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -794,17 +1102,324 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -864,7 +1479,528 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>